--- a/data/trans_orig/Q02G_FES-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_FES-Provincia-trans_orig.xlsx
@@ -631,22 +631,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.661223655041851</v>
+        <v>4.623353223782042</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.553636728754551</v>
+        <v>2.008895780982677</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.752699011120104</v>
+        <v>3.810293921665198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.824535487303095</v>
+        <v>2.935567088863045</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.592870073610603</v>
+        <v>4.454017971485897</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.421008801005065</v>
+        <v>3.535929680721701</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.446538105561716</v>
+        <v>9.589883099332718</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>14.31018087407648</v>
+        <v>12.87513414580454</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.626864803374258</v>
+        <v>7.34950847818055</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.232347923619921</v>
+        <v>8.988142732652038</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.488828955769875</v>
+        <v>7.444839399110498</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>8.182624616074751</v>
+        <v>8.542848926182687</v>
       </c>
     </row>
     <row r="7">
@@ -713,20 +713,20 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5810176374860389</v>
+        <v>0.608891515438621</v>
       </c>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>3.629916094020293</v>
+        <v>3.62593117542376</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0.4618358271943316</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.840534234715228</v>
+        <v>2.802418400185079</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.781819821043672</v>
+        <v>0.5946095106989572</v>
       </c>
     </row>
     <row r="9">
@@ -737,20 +737,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.282804585102033</v>
+        <v>2.37754704892255</v>
       </c>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>6.067573632224257</v>
+        <v>5.953089852313995</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>5.815178913882812</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>4.928508579633414</v>
+        <v>4.869857140664013</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>5.084308228775273</v>
+        <v>5.772650919751176</v>
       </c>
     </row>
     <row r="10">
@@ -797,16 +797,16 @@
         <v>2</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.977602342266094</v>
+        <v>1.483387793952203</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.70360452649329</v>
+        <v>1.629438996773826</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.84425100768184</v>
+        <v>1.814535956700201</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.890905460862342</v>
+        <v>1.806652900097306</v>
       </c>
     </row>
     <row r="12">
@@ -826,13 +826,13 @@
         <v>7.017305112498528</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.101647927649293</v>
+        <v>4.043881908396139</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.838836354774931</v>
+        <v>5.740457469340269</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.814299601818164</v>
+        <v>3.780711420025403</v>
       </c>
     </row>
     <row r="13">
@@ -876,19 +876,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.13645208819242</v>
+        <v>1.024139986008218</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.812262116205977</v>
+        <v>2.814162197402423</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.110442233394148</v>
+        <v>3.161454470275586</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>2.783547177439564</v>
+        <v>2.82061977923808</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.764776149968529</v>
+        <v>2.770495950706519</v>
       </c>
     </row>
     <row r="15">
@@ -902,19 +902,19 @@
         <v>5</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.457541922383415</v>
+        <v>3.523799707726098</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.665759932454666</v>
+        <v>5.903092650353317</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>7.737944223030302</v>
+        <v>8.004167484175387</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.3050135003436</v>
+        <v>5.364070104378196</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.364807074981478</v>
+        <v>6.339494220116236</v>
       </c>
     </row>
     <row r="16">
@@ -959,16 +959,16 @@
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
-        <v>1.043758100897571</v>
+        <v>0.9094465221571221</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.328000133298115</v>
+        <v>2.317915995213946</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.341993540422227</v>
+        <v>1.422924323540855</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>2.691702340213302</v>
+        <v>2.486101764600079</v>
       </c>
     </row>
     <row r="18">
@@ -983,16 +983,16 @@
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>2.279562352667363</v>
+        <v>2.269676548627973</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.534259143895948</v>
+        <v>6.517973261920416</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.354414141771637</v>
+        <v>2.394048887494215</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.573841383097989</v>
+        <v>6.50494007288762</v>
       </c>
     </row>
     <row r="19">
@@ -1034,19 +1034,19 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>2.740293183659595</v>
+        <v>2.773141068498849</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.676362526072962</v>
+        <v>1.666148640582537</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.299180403791827</v>
+        <v>2.421593733553411</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.721261099700526</v>
+        <v>1.710009822927524</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2.849357743265244</v>
+        <v>2.893093052293758</v>
       </c>
     </row>
     <row r="21">
@@ -1058,19 +1058,19 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>6.055629167014765</v>
+        <v>6.38203582280969</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.181119115461766</v>
+        <v>3.171623007628244</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5.753404442692532</v>
+        <v>5.760123109324517</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>3.116480647059272</v>
+        <v>3.098057136772261</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>5.278021304122385</v>
+        <v>5.274968283757713</v>
       </c>
     </row>
     <row r="22">
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.249356390670019</v>
+        <v>1.16189492022495</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6810231698694396</v>
+        <v>0.6891766099053065</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.396095923962551</v>
+        <v>1.404199413200387</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.214334057675333</v>
+        <v>3.107786583269373</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.688205423966821</v>
+        <v>1.641564254157211</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.772222385876242</v>
+        <v>2.677199405258</v>
       </c>
     </row>
     <row r="24">
@@ -1137,22 +1137,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.18614953527221</v>
+        <v>5.55989606884147</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.827974633526906</v>
+        <v>1.843775771445261</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.811328140399623</v>
+        <v>3.911832047755474</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.285816717868864</v>
+        <v>9.265738371429521</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.854702146029762</v>
+        <v>4.054526184776425</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.848671499504451</v>
+        <v>7.511160212995169</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>1.623514211142811</v>
+        <v>1.62043526041781</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.002130644857062</v>
+        <v>2.175318429277014</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.930545372869032</v>
+        <v>1.73260340696247</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.959383699447811</v>
+        <v>1.950958721391963</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>2.085525564706469</v>
+        <v>2.062529056063672</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>2.0809362660691</v>
+        <v>2.101381225366277</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.238544230491092</v>
+        <v>6.256449767226473</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>4.964711560244427</v>
+        <v>4.883991458811333</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.107515317877841</v>
+        <v>5.871104740991727</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.562238926744609</v>
+        <v>3.52930971187941</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>5.382829883298164</v>
+        <v>5.211868166839603</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>3.49662868297161</v>
+        <v>3.558741329488532</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.405346317054975</v>
+        <v>2.412773696564222</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.795268112285422</v>
+        <v>2.752024052531074</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.216906898941773</v>
+        <v>3.151655764888295</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.252274886715525</v>
+        <v>3.358518701654395</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.141238230985063</v>
+        <v>3.129933078074449</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.399239225618509</v>
+        <v>3.385085688581938</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.26645007367126</v>
+        <v>4.172734464791337</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.287417829985309</v>
+        <v>5.447516931207236</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.379588560005196</v>
+        <v>4.396543080993222</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.03596582763482</v>
+        <v>5.043968623592161</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.201064865147245</v>
+        <v>4.143249202453424</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>4.783503206976203</v>
+        <v>4.816247002834982</v>
       </c>
     </row>
     <row r="31">
